--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H2">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I2">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J2">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>52.69300127293044</v>
+        <v>9.50443389723311</v>
       </c>
       <c r="R2">
-        <v>474.2370114563739</v>
+        <v>85.53990507509798</v>
       </c>
       <c r="S2">
-        <v>0.040213437235638</v>
+        <v>0.005025585194604733</v>
       </c>
       <c r="T2">
-        <v>0.040213437235638</v>
+        <v>0.005025585194604733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H3">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I3">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J3">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>404.1593844225035</v>
+        <v>897.9299832578565</v>
       </c>
       <c r="R3">
-        <v>3637.434459802532</v>
+        <v>8081.369849320708</v>
       </c>
       <c r="S3">
-        <v>0.3084401656016086</v>
+        <v>0.4747914161374782</v>
       </c>
       <c r="T3">
-        <v>0.3084401656016086</v>
+        <v>0.4747914161374782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H4">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I4">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J4">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>67.20006797999154</v>
+        <v>143.8744959901571</v>
       </c>
       <c r="R4">
-        <v>604.8006118199239</v>
+        <v>1294.870463911414</v>
       </c>
       <c r="S4">
-        <v>0.05128471809656156</v>
+        <v>0.07607539225874818</v>
       </c>
       <c r="T4">
-        <v>0.05128471809656156</v>
+        <v>0.0760753922587482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.229372666666666</v>
+        <v>4.953047333333333</v>
       </c>
       <c r="H5">
-        <v>6.688117999999999</v>
+        <v>14.859142</v>
       </c>
       <c r="I5">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="J5">
-        <v>0.5889623983027473</v>
+        <v>0.7703204220313993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>247.6845212472668</v>
+        <v>405.5283003092524</v>
       </c>
       <c r="R5">
-        <v>2229.160691225401</v>
+        <v>3649.754702783272</v>
       </c>
       <c r="S5">
-        <v>0.1890240773689391</v>
+        <v>0.2144280284405681</v>
       </c>
       <c r="T5">
-        <v>0.1890240773689391</v>
+        <v>0.2144280284405681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.622792</v>
       </c>
       <c r="I6">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J6">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>20.66392701125067</v>
+        <v>1.677630726605333</v>
       </c>
       <c r="R6">
-        <v>185.975343101256</v>
+        <v>15.098676539448</v>
       </c>
       <c r="S6">
-        <v>0.01576997915917953</v>
+        <v>0.0008870676815476787</v>
       </c>
       <c r="T6">
-        <v>0.01576997915917953</v>
+        <v>0.0008870676815476787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.622792</v>
       </c>
       <c r="I7">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J7">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>158.4939141606453</v>
@@ -883,10 +883,10 @@
         <v>1426.445227445808</v>
       </c>
       <c r="S7">
-        <v>0.1209569566234589</v>
+        <v>0.08380558769234783</v>
       </c>
       <c r="T7">
-        <v>0.1209569566234588</v>
+        <v>0.08380558769234783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.622792</v>
       </c>
       <c r="I8">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J8">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>26.35297413971733</v>
+        <v>25.39533420482934</v>
       </c>
       <c r="R8">
-        <v>237.176767257456</v>
+        <v>228.558007843464</v>
       </c>
       <c r="S8">
-        <v>0.02011165896682997</v>
+        <v>0.01342809229584768</v>
       </c>
       <c r="T8">
-        <v>0.02011165896682996</v>
+        <v>0.01342809229584768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.622792</v>
       </c>
       <c r="I9">
-        <v>0.2309657016471988</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="J9">
-        <v>0.2309657016471987</v>
+        <v>0.135969508894967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>97.13120803956534</v>
+        <v>71.57993253074133</v>
       </c>
       <c r="R9">
-        <v>874.1808723560879</v>
+        <v>644.219392776672</v>
       </c>
       <c r="S9">
-        <v>0.07412710689773039</v>
+        <v>0.03784876122522381</v>
       </c>
       <c r="T9">
-        <v>0.07412710689773037</v>
+        <v>0.03784876122522381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H10">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I10">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J10">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>12.87782254389733</v>
+        <v>1.032858369906556</v>
       </c>
       <c r="R10">
-        <v>115.900402895076</v>
+        <v>9.295725329159</v>
       </c>
       <c r="S10">
-        <v>0.009827899267273971</v>
+        <v>0.0005461364441113177</v>
       </c>
       <c r="T10">
-        <v>0.009827899267273971</v>
+        <v>0.0005461364441113177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H11">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I11">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J11">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>98.77389228761868</v>
+        <v>97.57914135926825</v>
       </c>
       <c r="R11">
-        <v>888.9650305885681</v>
+        <v>878.2122722334141</v>
       </c>
       <c r="S11">
-        <v>0.07538074548940803</v>
+        <v>0.05159615958401707</v>
       </c>
       <c r="T11">
-        <v>0.07538074548940801</v>
+        <v>0.05159615958401707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H12">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I12">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J12">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>16.42325412253066</v>
+        <v>15.63501614154856</v>
       </c>
       <c r="R12">
-        <v>147.809287102776</v>
+        <v>140.715145273937</v>
       </c>
       <c r="S12">
-        <v>0.01253364740870436</v>
+        <v>0.008267205231575854</v>
       </c>
       <c r="T12">
-        <v>0.01253364740870436</v>
+        <v>0.008267205231575855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.544844</v>
+        <v>0.5382536666666667</v>
       </c>
       <c r="H13">
-        <v>1.634532</v>
+        <v>1.614761</v>
       </c>
       <c r="I13">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="J13">
-        <v>0.1439385320089428</v>
+        <v>0.08371165542397027</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>60.53246606643867</v>
+        <v>44.06925270218623</v>
       </c>
       <c r="R13">
-        <v>544.792194597948</v>
+        <v>396.623274319676</v>
       </c>
       <c r="S13">
-        <v>0.04619623984355642</v>
+        <v>0.02330215416426603</v>
       </c>
       <c r="T13">
-        <v>0.04619623984355642</v>
+        <v>0.02330215416426603</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H14">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I14">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J14">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>3.232762590060666</v>
+        <v>0.1233632899927778</v>
       </c>
       <c r="R14">
-        <v>29.094863310546</v>
+        <v>1.110269609935</v>
       </c>
       <c r="S14">
-        <v>0.002467130214120244</v>
+        <v>6.522984224509343E-05</v>
       </c>
       <c r="T14">
-        <v>0.002467130214120244</v>
+        <v>6.522984224509343E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H15">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I15">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J15">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>24.79553843622533</v>
+        <v>11.65472853150111</v>
       </c>
       <c r="R15">
-        <v>223.159845926028</v>
+        <v>104.89255678351</v>
       </c>
       <c r="S15">
-        <v>0.01892307905302856</v>
+        <v>0.006162579674745336</v>
       </c>
       <c r="T15">
-        <v>0.01892307905302856</v>
+        <v>0.006162579674745336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H16">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I16">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J16">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>4.122784061777332</v>
+        <v>1.867426441522778</v>
       </c>
       <c r="R16">
-        <v>37.10505655599599</v>
+        <v>16.806837973705</v>
       </c>
       <c r="S16">
-        <v>0.003146363162075988</v>
+        <v>0.0009874244776706133</v>
       </c>
       <c r="T16">
-        <v>0.003146363162075988</v>
+        <v>0.0009874244776706133</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.136774</v>
+        <v>0.06428833333333334</v>
       </c>
       <c r="H17">
-        <v>0.410322</v>
+        <v>0.192865</v>
       </c>
       <c r="I17">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="J17">
-        <v>0.0361333680411111</v>
+        <v>0.009998413649663342</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>15.19566612419533</v>
+        <v>5.263575490371111</v>
       </c>
       <c r="R17">
-        <v>136.760995117758</v>
+        <v>47.37217941334</v>
       </c>
       <c r="S17">
-        <v>0.01159679561188631</v>
+        <v>0.0027831796550023</v>
       </c>
       <c r="T17">
-        <v>0.01159679561188631</v>
+        <v>0.0027831796550023</v>
       </c>
     </row>
   </sheetData>
